--- a/Semestre 2/Administración y Valoración Financiera/1-Archivo 1PF 03.2023 Plantilla_EstudiantesAF.xlsx
+++ b/Semestre 2/Administración y Valoración Financiera/1-Archivo 1PF 03.2023 Plantilla_EstudiantesAF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGOJ\OneDrive\Desktop\NICO\MAF\Semestre 2\Administración y Valoración Financiera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3bc701a07c40c19e/Desktop/NICO/MAF/Semestre 2/Administración y Valoración Financiera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E0A36-F781-40D9-873F-3BF209D0003E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BE263451-5743-4C1D-A3C8-F6290D6FFE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C0DA49-DA5D-41C0-A8A9-0694BC1EB205}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="890" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="PyG &amp; Balance (3)" sheetId="10" r:id="rId4"/>
     <sheet name="PyG &amp; Balance (4)" sheetId="11" r:id="rId5"/>
     <sheet name="PyG &amp; Balance (5)" sheetId="13" r:id="rId6"/>
+    <sheet name="Taller en clase" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$33:$C$81</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="85">
   <si>
     <t>VENTAS</t>
   </si>
@@ -266,19 +267,76 @@
   <si>
     <t>PAS+PAT SIN PAS.FIN.REQ</t>
   </si>
+  <si>
+    <t>Cajas/Mes</t>
+  </si>
+  <si>
+    <t>TOTAL CAJAS</t>
+  </si>
+  <si>
+    <t>Precio/Caja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descuento </t>
+  </si>
+  <si>
+    <t>Costo Final</t>
+  </si>
+  <si>
+    <t>Costo Final Descuento</t>
+  </si>
+  <si>
+    <t>Costo de Cajas</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>NOPAT</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Inventario Inicial</t>
+  </si>
+  <si>
+    <t>Precio de Compra</t>
+  </si>
+  <si>
+    <t>Capital Empleado</t>
+  </si>
+  <si>
+    <t>Cobro por el uso de K</t>
+  </si>
+  <si>
+    <t>Descuento</t>
+  </si>
+  <si>
+    <t>Impacto en el EVA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0\P"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,14 +431,8 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +501,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -451,8 +509,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -514,14 +573,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="6" xr:uid="{8279ECC1-2FE2-4D79-BF1C-9B0DA4457541}"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="7" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{16E253AF-97C5-4411-97E2-CB80D56F5424}"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{8C355C8F-7766-4343-8D0B-9CFE9185D679}"/>
@@ -5448,7 +5535,7 @@
         <v>-499.71668690937634</v>
       </c>
       <c r="E47" s="32">
-        <f t="shared" ref="D47:G47" ca="1" si="11">E68*E11-E59*E11*E13</f>
+        <f t="shared" ref="E47:F47" ca="1" si="11">E68*E11-E59*E11*E13</f>
         <v>-1647.691553014464</v>
       </c>
       <c r="F47" s="32">
@@ -6330,9 +6417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DE5E29-64AE-4571-AE9F-10701A96AD5B}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.23046875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -6377,7 +6464,7 @@
         <v>2023</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D1:G3" si="0">C3+1</f>
+        <f t="shared" ref="D3:G3" si="0">C3+1</f>
         <v>2024</v>
       </c>
       <c r="E3" s="6">
@@ -6499,7 +6586,7 @@
       <c r="C9" s="8">
         <v>0.39</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="8">
         <v>0.39</v>
       </c>
       <c r="E9" s="40">
@@ -6668,17 +6755,17 @@
       <c r="C16" s="10">
         <v>21800</v>
       </c>
-      <c r="D16" s="10">
-        <v>21800</v>
-      </c>
-      <c r="E16" s="10">
-        <v>21800</v>
-      </c>
-      <c r="F16" s="10">
-        <v>21800</v>
-      </c>
-      <c r="G16" s="10">
-        <v>21800</v>
+      <c r="D16" s="45">
+        <v>25000</v>
+      </c>
+      <c r="E16" s="45">
+        <v>41000</v>
+      </c>
+      <c r="F16" s="45">
+        <v>68000</v>
+      </c>
+      <c r="G16" s="45">
+        <v>84000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6785,20 +6872,20 @@
         <f>B64</f>
         <v>339150</v>
       </c>
-      <c r="C21" s="10">
-        <v>350000</v>
-      </c>
-      <c r="D21" s="10">
-        <v>350000</v>
-      </c>
-      <c r="E21" s="10">
-        <v>350000</v>
-      </c>
-      <c r="F21" s="44">
-        <v>393730</v>
-      </c>
-      <c r="G21" s="44">
-        <v>409795</v>
+      <c r="C21" s="45">
+        <v>358938</v>
+      </c>
+      <c r="D21" s="45">
+        <v>380474</v>
+      </c>
+      <c r="E21" s="45">
+        <v>403302</v>
+      </c>
+      <c r="F21" s="46">
+        <v>427500</v>
+      </c>
+      <c r="G21" s="46">
+        <v>453150</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -6812,16 +6899,16 @@
       <c r="C22" s="10">
         <v>60000</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="43">
         <v>34000</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="42">
         <v>34000</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="42">
         <v>34000</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="42">
         <v>34000</v>
       </c>
     </row>
@@ -6979,16 +7066,16 @@
       <c r="C29" s="10">
         <v>5000</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="42">
         <v>0</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="42">
         <v>0</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="42">
         <v>0</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="42">
         <v>0</v>
       </c>
     </row>
@@ -7340,23 +7427,23 @@
       <c r="B47" s="32"/>
       <c r="C47" s="32">
         <f ca="1">C68*C11-C59*C11*C13</f>
-        <v>756.25865951743901</v>
+        <v>1618.9074530831153</v>
       </c>
       <c r="D47" s="32">
         <f t="shared" ref="D47:G47" ca="1" si="10">D68*D11-D59*D11*D13</f>
-        <v>-199.71112401202925</v>
+        <v>2969.9918724751842</v>
       </c>
       <c r="E47" s="32">
         <f t="shared" ca="1" si="10"/>
-        <v>-2587.1515453131069</v>
+        <v>2278.0967637590506</v>
       </c>
       <c r="F47" s="32">
         <f t="shared" ca="1" si="10"/>
-        <v>-4023.3481120300839</v>
+        <v>1201.7621048751196</v>
       </c>
       <c r="G47" s="32">
         <f t="shared" ca="1" si="10"/>
-        <v>-6876.0783364265872</v>
+        <v>-40.627998776609076</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -7369,23 +7456,23 @@
       </c>
       <c r="C48" s="18">
         <f ca="1">C45-SUM(C46:C47)</f>
-        <v>53891.10134048255</v>
+        <v>53028.452546916873</v>
       </c>
       <c r="D48" s="18">
         <f t="shared" ref="D48:G48" ca="1" si="11">D45-SUM(D46:D47)</f>
-        <v>59922.859924011995</v>
+        <v>56753.156927524782</v>
       </c>
       <c r="E48" s="18">
         <f t="shared" ca="1" si="11"/>
-        <v>95544.02751331302</v>
+        <v>90678.779204240869</v>
       </c>
       <c r="F48" s="18">
         <f t="shared" ca="1" si="11"/>
-        <v>153594.04961859016</v>
+        <v>148368.93940168497</v>
       </c>
       <c r="G48" s="18">
         <f t="shared" ca="1" si="11"/>
-        <v>186933.13988299953</v>
+        <v>180097.68954534957</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -7397,23 +7484,23 @@
       </c>
       <c r="C49" s="21">
         <f ca="1">C15*C48</f>
-        <v>13472.775335120637</v>
+        <v>13257.113136729218</v>
       </c>
       <c r="D49" s="21">
         <f t="shared" ref="D49:G49" ca="1" si="12">D15*D48</f>
-        <v>14980.714981002999</v>
+        <v>14188.289231881196</v>
       </c>
       <c r="E49" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>23886.006878328255</v>
+        <v>22669.694801060217</v>
       </c>
       <c r="F49" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>38398.512404647539</v>
+        <v>37092.234850421242</v>
       </c>
       <c r="G49" s="21">
         <f t="shared" ca="1" si="12"/>
-        <v>46733.284970749883</v>
+        <v>45024.422386337392</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -7426,23 +7513,23 @@
       </c>
       <c r="C50" s="23">
         <f ca="1">C48-C49</f>
-        <v>40418.326005361916</v>
+        <v>39771.339410187655</v>
       </c>
       <c r="D50" s="23">
         <f t="shared" ref="D50:G50" ca="1" si="13">D48-D49</f>
-        <v>44942.144943009</v>
+        <v>42564.867695643588</v>
       </c>
       <c r="E50" s="23">
         <f t="shared" ca="1" si="13"/>
-        <v>71658.020634984772</v>
+        <v>68009.084403180648</v>
       </c>
       <c r="F50" s="23">
         <f t="shared" ca="1" si="13"/>
-        <v>115195.53721394262</v>
+        <v>111276.70455126373</v>
       </c>
       <c r="G50" s="23">
         <f t="shared" ca="1" si="13"/>
-        <v>140199.85491224966</v>
+        <v>135073.26715901218</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
@@ -7456,21 +7543,21 @@
         <f>C16</f>
         <v>21800</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="44">
         <f t="shared" ref="D51:G51" si="14">D16</f>
-        <v>21800</v>
-      </c>
-      <c r="E51" s="16">
+        <v>25000</v>
+      </c>
+      <c r="E51" s="44">
         <f t="shared" si="14"/>
-        <v>21800</v>
-      </c>
-      <c r="F51" s="16">
+        <v>41000</v>
+      </c>
+      <c r="F51" s="44">
         <f t="shared" si="14"/>
-        <v>21800</v>
-      </c>
-      <c r="G51" s="16">
+        <v>68000</v>
+      </c>
+      <c r="G51" s="44">
         <f t="shared" si="14"/>
-        <v>21800</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7483,23 +7570,23 @@
       </c>
       <c r="C52" s="16">
         <f ca="1">C50-C51</f>
-        <v>18618.326005361916</v>
+        <v>17971.339410187655</v>
       </c>
       <c r="D52" s="16">
         <f t="shared" ref="D52:G52" ca="1" si="15">D50-D51</f>
-        <v>23142.144943009</v>
+        <v>17564.867695643588</v>
       </c>
       <c r="E52" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>49858.020634984772</v>
+        <v>27009.084403180648</v>
       </c>
       <c r="F52" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>93395.537213942618</v>
+        <v>43276.704551263727</v>
       </c>
       <c r="G52" s="16">
         <f t="shared" ca="1" si="15"/>
-        <v>118399.85491224966</v>
+        <v>51073.267159012175</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7558,19 +7645,19 @@
       </c>
       <c r="D59" s="16">
         <f t="shared" ref="D59:G59" ca="1" si="16">IF(D85&lt;0,-D85,)</f>
-        <v>3698.3541483709123</v>
+        <v>0</v>
       </c>
       <c r="E59" s="16">
         <f t="shared" ca="1" si="16"/>
-        <v>53898.990527355694</v>
+        <v>0</v>
       </c>
       <c r="F59" s="16">
         <f t="shared" ca="1" si="16"/>
-        <v>95794.002667378169</v>
+        <v>0</v>
       </c>
       <c r="G59" s="16">
         <f t="shared" ca="1" si="16"/>
-        <v>191002.1760118329</v>
+        <v>1128.5555215724744</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -7694,23 +7781,23 @@
       </c>
       <c r="C64" s="16">
         <f>C21</f>
-        <v>350000</v>
+        <v>358938</v>
       </c>
       <c r="D64" s="16">
-        <f t="shared" ref="D64:G64" si="21">D21</f>
-        <v>350000</v>
+        <f>D21</f>
+        <v>380474</v>
       </c>
       <c r="E64" s="16">
-        <f t="shared" si="21"/>
-        <v>350000</v>
+        <f>E21</f>
+        <v>403302</v>
       </c>
       <c r="F64" s="16">
-        <f t="shared" si="21"/>
-        <v>393730</v>
+        <f t="shared" ref="F64:G64" si="21">F21</f>
+        <v>427500</v>
       </c>
       <c r="G64" s="16">
         <f t="shared" si="21"/>
-        <v>409795</v>
+        <v>453150</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -7751,23 +7838,23 @@
       </c>
       <c r="C66" s="23">
         <f ca="1">SUM(C59:C65)</f>
-        <v>695513.12000000011</v>
+        <v>704451.12000000011</v>
       </c>
       <c r="D66" s="23">
         <f t="shared" ref="D66:G66" ca="1" si="23">SUM(D59:D65)</f>
-        <v>738879.49174837093</v>
+        <v>765655.13760000002</v>
       </c>
       <c r="E66" s="23">
         <f t="shared" ca="1" si="23"/>
-        <v>826425.24422335578</v>
+        <v>825828.25369600009</v>
       </c>
       <c r="F66" s="23">
         <f t="shared" ca="1" si="23"/>
-        <v>939247.09412209829</v>
+        <v>877223.09145472012</v>
       </c>
       <c r="G66" s="23">
         <f t="shared" ca="1" si="23"/>
-        <v>1075463.6529538361</v>
+        <v>928945.03246357571</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
@@ -7786,19 +7873,19 @@
       <c r="B68" s="16"/>
       <c r="C68" s="16">
         <f ca="1">IF(C85&gt;0,C85,)</f>
-        <v>8402.873994638212</v>
+        <v>17987.860589812393</v>
       </c>
       <c r="D68" s="16">
         <f t="shared" ref="D68:G68" ca="1" si="24">IF(D85&gt;0,D85,)</f>
-        <v>0</v>
+        <v>32999.909694168717</v>
       </c>
       <c r="E68" s="16">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>28476.209546988131</v>
       </c>
       <c r="F68" s="16">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>17168.030069644563</v>
       </c>
       <c r="G68" s="16">
         <f t="shared" ca="1" si="24"/>
@@ -8010,23 +8097,23 @@
       </c>
       <c r="C76" s="16">
         <f ca="1">B76+C52</f>
-        <v>310906.32600536192</v>
+        <v>310259.33941018768</v>
       </c>
       <c r="D76" s="16">
         <f t="shared" ref="D76:G76" ca="1" si="32">C76+D52</f>
-        <v>334048.47094837093</v>
+        <v>327824.20710583124</v>
       </c>
       <c r="E76" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>383906.4915833557</v>
+        <v>354833.29150901188</v>
       </c>
       <c r="F76" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>477302.02879729832</v>
+        <v>398109.99606027559</v>
       </c>
       <c r="G76" s="16">
         <f t="shared" ca="1" si="32"/>
-        <v>595701.88370954804</v>
+        <v>449183.26321928774</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -8039,23 +8126,23 @@
       </c>
       <c r="C77" s="23">
         <f ca="1">SUM(C68:C76)</f>
-        <v>695513.12000000011</v>
+        <v>704451.12000000011</v>
       </c>
       <c r="D77" s="23">
         <f t="shared" ref="D77:G77" ca="1" si="33">SUM(D68:D76)</f>
-        <v>738879.49174837093</v>
+        <v>765655.13760000002</v>
       </c>
       <c r="E77" s="23">
         <f t="shared" ca="1" si="33"/>
-        <v>826425.24422335578</v>
+        <v>825828.25369600009</v>
       </c>
       <c r="F77" s="23">
         <f t="shared" ca="1" si="33"/>
-        <v>939247.09412209829</v>
+        <v>877223.09145472024</v>
       </c>
       <c r="G77" s="23">
         <f t="shared" ca="1" si="33"/>
-        <v>1075463.6529538361</v>
+        <v>928945.03246357571</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -8068,23 +8155,23 @@
       </c>
       <c r="C79" s="16">
         <f>C80/(1-C30)</f>
-        <v>729166.66666666674</v>
+        <v>747787.5</v>
       </c>
       <c r="D79" s="16">
         <f t="shared" ref="D79:G79" si="34">D80/(1-D30)</f>
-        <v>729166.66666666674</v>
+        <v>792654.16666666674</v>
       </c>
       <c r="E79" s="16">
         <f t="shared" si="34"/>
-        <v>729166.66666666674</v>
+        <v>840212.5</v>
       </c>
       <c r="F79" s="16">
         <f t="shared" si="34"/>
-        <v>820270.83333333337</v>
+        <v>890625</v>
       </c>
       <c r="G79" s="16">
         <f t="shared" si="34"/>
-        <v>853739.58333333337</v>
+        <v>944062.5</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -8096,23 +8183,23 @@
       </c>
       <c r="C80" s="27">
         <f>C64</f>
-        <v>350000</v>
+        <v>358938</v>
       </c>
       <c r="D80" s="27">
         <f t="shared" ref="D80:G80" si="35">D64</f>
-        <v>350000</v>
+        <v>380474</v>
       </c>
       <c r="E80" s="27">
         <f t="shared" si="35"/>
-        <v>350000</v>
+        <v>403302</v>
       </c>
       <c r="F80" s="27">
         <f t="shared" si="35"/>
-        <v>393730</v>
+        <v>427500</v>
       </c>
       <c r="G80" s="27">
         <f t="shared" si="35"/>
-        <v>409795</v>
+        <v>453150</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -8124,23 +8211,23 @@
       </c>
       <c r="C81" s="29">
         <f>C79-C80</f>
-        <v>379166.66666666674</v>
+        <v>388849.5</v>
       </c>
       <c r="D81" s="29">
         <f t="shared" ref="D81:G81" si="36">D79-D80</f>
-        <v>379166.66666666674</v>
+        <v>412180.16666666674</v>
       </c>
       <c r="E81" s="29">
         <f t="shared" si="36"/>
-        <v>379166.66666666674</v>
+        <v>436910.5</v>
       </c>
       <c r="F81" s="29">
         <f t="shared" si="36"/>
-        <v>426540.83333333337</v>
+        <v>463125</v>
       </c>
       <c r="G81" s="29">
         <f t="shared" si="36"/>
-        <v>443944.58333333337</v>
+        <v>490912.5</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -8149,23 +8236,23 @@
       </c>
       <c r="C83" s="27">
         <f>SUM(C60:C65)</f>
-        <v>695513.12000000011</v>
+        <v>704451.12000000011</v>
       </c>
       <c r="D83" s="27">
         <f t="shared" ref="D83:G83" si="37">SUM(D60:D65)</f>
-        <v>735181.13760000002</v>
+        <v>765655.13760000002</v>
       </c>
       <c r="E83" s="27">
         <f t="shared" si="37"/>
-        <v>772526.25369600009</v>
+        <v>825828.25369600009</v>
       </c>
       <c r="F83" s="27">
         <f t="shared" si="37"/>
-        <v>843453.09145472012</v>
+        <v>877223.09145472012</v>
       </c>
       <c r="G83" s="27">
         <f t="shared" si="37"/>
-        <v>884461.47694200324</v>
+        <v>927816.47694200324</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -8174,23 +8261,23 @@
       </c>
       <c r="C84" s="27">
         <f ca="1">SUM(C69:C76)</f>
-        <v>687110.2460053619</v>
+        <v>686463.25941018772</v>
       </c>
       <c r="D84" s="27">
         <f t="shared" ref="D84:G84" ca="1" si="38">SUM(D69:D76)</f>
-        <v>738879.49174837093</v>
+        <v>732655.2279058313</v>
       </c>
       <c r="E84" s="27">
         <f t="shared" ca="1" si="38"/>
-        <v>826425.24422335578</v>
+        <v>797352.04414901196</v>
       </c>
       <c r="F84" s="27">
         <f t="shared" ca="1" si="38"/>
-        <v>939247.09412209829</v>
+        <v>860055.06138507556</v>
       </c>
       <c r="G84" s="27">
         <f t="shared" ca="1" si="38"/>
-        <v>1075463.6529538361</v>
+        <v>928945.03246357571</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -8199,23 +8286,23 @@
       </c>
       <c r="C85" s="27">
         <f ca="1">C83-C84</f>
-        <v>8402.873994638212</v>
+        <v>17987.860589812393</v>
       </c>
       <c r="D85" s="27">
         <f t="shared" ref="D85:G85" ca="1" si="39">D83-D84</f>
-        <v>-3698.3541483709123</v>
+        <v>32999.909694168717</v>
       </c>
       <c r="E85" s="27">
         <f t="shared" ca="1" si="39"/>
-        <v>-53898.990527355694</v>
+        <v>28476.209546988131</v>
       </c>
       <c r="F85" s="27">
         <f t="shared" ca="1" si="39"/>
-        <v>-95794.002667378169</v>
+        <v>17168.030069644563</v>
       </c>
       <c r="G85" s="27">
         <f t="shared" ca="1" si="39"/>
-        <v>-191002.1760118329</v>
+        <v>-1128.5555215724744</v>
       </c>
     </row>
   </sheetData>
@@ -8224,4 +8311,258 @@
   <pageSetup scale="90" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AFA523-2B61-4DDC-8BBA-4491927EE1CC}">
+  <dimension ref="A2:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.15234375" customWidth="1"/>
+    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.84375" customWidth="1"/>
+    <col min="4" max="4" width="18.15234375" customWidth="1"/>
+    <col min="5" max="5" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.84375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="52">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="49"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="49">
+        <v>20</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="49">
+        <f>B5*12</f>
+        <v>240</v>
+      </c>
+      <c r="C6" s="50"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="49">
+        <v>100</v>
+      </c>
+      <c r="C7" s="50"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="57">
+        <v>13.095238095238084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="50">
+        <f>B6*(B7-B8)</f>
+        <v>20857.142857142859</v>
+      </c>
+      <c r="C9" s="51"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="50">
+        <f>B6*B7</f>
+        <v>24000</v>
+      </c>
+      <c r="C10" s="51"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="51">
+        <f>-B10</f>
+        <v>-24000</v>
+      </c>
+      <c r="C13" s="51">
+        <f>-B9</f>
+        <v>-20857.142857142859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="51">
+        <f>B2*B13</f>
+        <v>-9600</v>
+      </c>
+      <c r="C14" s="51">
+        <f>C13*B2</f>
+        <v>-8342.8571428571431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="55">
+        <f>B13-B14</f>
+        <v>-14400</v>
+      </c>
+      <c r="C15" s="55">
+        <f>C13-C14</f>
+        <v>-12514.285714285716</v>
+      </c>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18" s="58">
+        <f>B18*(1-C19)</f>
+        <v>86.904761904761912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="56">
+        <f>B8/B7</f>
+        <v>0.13095238095238085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="47"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21">
+        <f>B17*B18</f>
+        <v>2000</v>
+      </c>
+      <c r="C21" s="58">
+        <f>C17*C18</f>
+        <v>20857.142857142859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="52">
+        <f>B3</f>
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="52">
+        <f>B3</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="54">
+        <f>B21*B22</f>
+        <v>200</v>
+      </c>
+      <c r="C23" s="59">
+        <f t="shared" ref="C23" si="0">C21*C22</f>
+        <v>2085.7142857142858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="51">
+        <f>B15-B23</f>
+        <v>-14600</v>
+      </c>
+      <c r="C24" s="51">
+        <f t="shared" ref="C24" si="1">C15-C23</f>
+        <v>-14600.000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="51">
+        <f>B24-C24</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B22:C22" formula="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>